--- a/currentbuild/StructureDefinition-no-basis-HumanName.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-HumanName.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:22:43+00:00</t>
+    <t>2025-03-12T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-basis-HumanName.xlsx
+++ b/currentbuild/StructureDefinition-no-basis-HumanName.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-12T12:30:26+00:00</t>
+    <t>2025-03-12T15:46:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
